--- a/meta/1-2-1.xlsx
+++ b/meta/1-2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B43E9F-75D2-44B4-8E39-61FBFCB0C021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5F83DC-9CBE-4936-B92D-59755FE18C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1890" windowWidth="8790" windowHeight="7875" xr2:uid="{C28ABAC6-3CF1-48CB-9960-59C2C023F4B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C28ABAC6-3CF1-48CB-9960-59C2C023F4B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -446,9 +446,6 @@
     <t>De aquí a 2030, reducir al menos a la mitad la proporción de hombres, mujeres y niños de todas las edades que viven en la pobreza en todas sus dimensiones con arreglo a las definiciones nacionales</t>
   </si>
   <si>
-    <t>Proporción de la población que vive por debajo del umbral nacional de la pobreza, desglosada por sexo y edad</t>
-  </si>
-  <si>
     <t>Este indicador resulta de identificar a la población de referencia que cuenta con un ingreso corriente total per cápita inferior al valor monetario de la línea de pobreza por ingresos (canasta alimentaria y no alimentaria), dividir dicho número de personas entre la población de referencia total y de multiplicar el cociente por 100.</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>complete</t>
+  </si>
+  <si>
+    <t>Proporción de la población que vive por debajo del umbral nacional de la pobreza</t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,7 @@
   <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
